--- a/CashFlow/IEX_cashflow.xlsx
+++ b/CashFlow/IEX_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1222000000.0</v>
+        <v>52701000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1258000000.0</v>
+        <v>36523000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>981665000.0</v>
+        <v>31585000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>683685000.0</v>
+        <v>8156000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>356226000.0</v>
+        <v>-8491000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-3322000.0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>8598000.0</v>
+        <v>595000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>2702000.0</v>
+        <v>582000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-34938000.0</v>
+        <v>406558000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-13904000.0</v>
+        <v>287938000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-7912000.0</v>
+        <v>135942000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-46664000.0</v>
